--- a/server/reports/report.xlsx
+++ b/server/reports/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,21 @@
           <t>Оценка_yota_Интерьер</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Количество зон</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка_прог</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -670,6 +685,17 @@
       </c>
       <c r="AA2" t="n">
         <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Паритет</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -766,6 +792,17 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Диспаритет</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -876,6 +913,17 @@
       </c>
       <c r="AA4" t="n">
         <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Паритет</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -987,6 +1035,17 @@
       </c>
       <c r="AA5" t="n">
         <v>2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Паритет</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1087,6 +1146,17 @@
       <c r="AA6" t="n">
         <v>1</v>
       </c>
+      <c r="AB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Паритет</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1194,6 +1264,17 @@
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Приоритет</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
